--- a/required_project_files/Test Cases.xlsx
+++ b/required_project_files/Test Cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="13920" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="13920" tabRatio="500" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Black Box Test" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="99">
   <si>
     <t>Test Id</t>
   </si>
@@ -305,13 +305,22 @@
     <t>The event id is returned</t>
   </si>
   <si>
-    <t>Create new channel</t>
-  </si>
-  <si>
-    <t>Create channel with specified sensor type</t>
-  </si>
-  <si>
-    <t>Create channel with a sensor type that does not exist</t>
+    <t>Create new channel with default system controller, valid id and null sensor</t>
+  </si>
+  <si>
+    <t>Create new channel with default system controller, valid id and invalid sensor name</t>
+  </si>
+  <si>
+    <t>Create new channel with default system controller, valid id and valid sensor name</t>
+  </si>
+  <si>
+    <t>Channel constructor throws Illegal Argument exception</t>
+  </si>
+  <si>
+    <t>Channel is created without exception but with no active sensor</t>
+  </si>
+  <si>
+    <t>Channel is created without exception and with an active sensor type</t>
   </si>
 </sst>
 </file>
@@ -762,7 +771,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="BS1" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -1518,14 +1527,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="44.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="69.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1549,6 +1558,9 @@
       <c r="B2" t="s">
         <v>93</v>
       </c>
+      <c r="C2" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
@@ -1557,6 +1569,9 @@
       <c r="B3" t="s">
         <v>94</v>
       </c>
+      <c r="C3" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
@@ -1566,7 +1581,7 @@
         <v>95</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:4">

--- a/required_project_files/Test Cases.xlsx
+++ b/required_project_files/Test Cases.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="128">
   <si>
     <t>Test Id</t>
   </si>
@@ -321,6 +321,93 @@
   </si>
   <si>
     <t>Channel is created without exception and with an active sensor type</t>
+  </si>
+  <si>
+    <t>Create new channel with default system controller, valid id, valid sensor name and not active</t>
+  </si>
+  <si>
+    <t>Create new channel with default system controller, valid id, valid sensor name and is active</t>
+  </si>
+  <si>
+    <t>Add sensor to the channel with string of "GATE"</t>
+  </si>
+  <si>
+    <t>Add sensor to channel with string of "bad sensor"</t>
+  </si>
+  <si>
+    <t>Illegal argument Exception for trying to add an invalid sensor type</t>
+  </si>
+  <si>
+    <t>Channel adds a sensor of type gate</t>
+  </si>
+  <si>
+    <t>Add a sensor to the channel with a sensor of type PAD</t>
+  </si>
+  <si>
+    <t>Channel's sensor is set to a PAD</t>
+  </si>
+  <si>
+    <t>Same as expected</t>
+  </si>
+  <si>
+    <t>Same as expedted</t>
+  </si>
+  <si>
+    <t>Channel is created and is not active(false)</t>
+  </si>
+  <si>
+    <t>Channel is created and is active(true)</t>
+  </si>
+  <si>
+    <t>same as expected</t>
+  </si>
+  <si>
+    <t>A channel with sensor of type PAD has sensor disconnected</t>
+  </si>
+  <si>
+    <t>Channel's sensor is null and sensor type is null</t>
+  </si>
+  <si>
+    <t>Trigger channel's sensor that is not active(false)</t>
+  </si>
+  <si>
+    <t>The sensor is not triggered because channel is not active</t>
+  </si>
+  <si>
+    <t>Trigger a channel's sensor that is active(true) but sensor is null</t>
+  </si>
+  <si>
+    <t>the sensor is not triggered because it does not exist</t>
+  </si>
+  <si>
+    <t>Test get channel state when not active</t>
+  </si>
+  <si>
+    <t>The state is not active so false</t>
+  </si>
+  <si>
+    <t>test get channel state when active</t>
+  </si>
+  <si>
+    <t>The state is true because it is active</t>
+  </si>
+  <si>
+    <t>Get channel id with id 0f 100</t>
+  </si>
+  <si>
+    <t>id is returned to be 100</t>
+  </si>
+  <si>
+    <t>Channel exit</t>
+  </si>
+  <si>
+    <t>Id is -1, active is false and current sensor is set to null if there was on</t>
+  </si>
+  <si>
+    <t>Channel trigger sensor no sensor</t>
+  </si>
+  <si>
+    <t>cannot trigger sensor since nul</t>
   </si>
 </sst>
 </file>
@@ -1525,16 +1612,17 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="69.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="76.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="56.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1561,6 +1649,9 @@
       <c r="C2" t="s">
         <v>97</v>
       </c>
+      <c r="D2" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
@@ -1572,6 +1663,9 @@
       <c r="C3" t="s">
         <v>96</v>
       </c>
+      <c r="D3" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
@@ -1583,10 +1677,200 @@
       <c r="C4" t="s">
         <v>98</v>
       </c>
+      <c r="D4" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
         <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" t="s">
+        <v>115</v>
+      </c>
+      <c r="D11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C12" t="s">
+        <v>117</v>
+      </c>
+      <c r="D12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C13" t="s">
+        <v>119</v>
+      </c>
+      <c r="D13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" t="s">
+        <v>121</v>
+      </c>
+      <c r="D14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>122</v>
+      </c>
+      <c r="C15" t="s">
+        <v>123</v>
+      </c>
+      <c r="D15" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>124</v>
+      </c>
+      <c r="C16" t="s">
+        <v>125</v>
+      </c>
+      <c r="D16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>126</v>
+      </c>
+      <c r="C17" t="s">
+        <v>127</v>
+      </c>
+      <c r="D17" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/required_project_files/Test Cases.xlsx
+++ b/required_project_files/Test Cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="13920" tabRatio="500" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="13920" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Black Box Test" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="165">
   <si>
     <t>Test Id</t>
   </si>
@@ -62,24 +62,9 @@
     <t>A participant starting but canceling the start due to invalid start</t>
   </si>
   <si>
-    <t>Turning the chrono timer system on</t>
-  </si>
-  <si>
-    <t>Turning the chrono timer system off</t>
-  </si>
-  <si>
-    <t>Exiting the chrono timer</t>
-  </si>
-  <si>
-    <t>Set the time</t>
-  </si>
-  <si>
     <t>Reset the timer</t>
   </si>
   <si>
-    <t>Toggle a channel</t>
-  </si>
-  <si>
     <t>Export event and participant data</t>
   </si>
   <si>
@@ -408,6 +393,132 @@
   </si>
   <si>
     <t>cannot trigger sensor since nul</t>
+  </si>
+  <si>
+    <t>Turning the chrono timer system on when starting up</t>
+  </si>
+  <si>
+    <t>Turning the chrono timer system off when already on</t>
+  </si>
+  <si>
+    <t>Exiting the chrono timer when on</t>
+  </si>
+  <si>
+    <t>Set the time on initialization</t>
+  </si>
+  <si>
+    <t>Toggle a channel on and off (enabled/disabled)</t>
+  </si>
+  <si>
+    <t>Run an Indivdiual event with 3 participants</t>
+  </si>
+  <si>
+    <t>Run a Group event with 2 participants</t>
+  </si>
+  <si>
+    <t>Run Test data from d2l</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The chrono timer is initialized </t>
+  </si>
+  <si>
+    <t>The timer is turned off but</t>
+  </si>
+  <si>
+    <t>Set abstract event name to "new name"</t>
+  </si>
+  <si>
+    <t>the name is "new name"</t>
+  </si>
+  <si>
+    <t>Set event name to ""</t>
+  </si>
+  <si>
+    <t>The name is ""</t>
+  </si>
+  <si>
+    <t>Set event time to time.getTime()</t>
+  </si>
+  <si>
+    <t>The time is time.getTime()</t>
+  </si>
+  <si>
+    <t>Input invalid trig command format on GUI "Trig 55" invalid channel</t>
+  </si>
+  <si>
+    <t>Input invalid command "ON 294"</t>
+  </si>
+  <si>
+    <t>Add null participant to event</t>
+  </si>
+  <si>
+    <t>IllegalArgumentexception</t>
+  </si>
+  <si>
+    <t>Add participant already in current participants for event</t>
+  </si>
+  <si>
+    <t>Illegal Argument Exception</t>
+  </si>
+  <si>
+    <t>Add participant not already in queue and not null</t>
+  </si>
+  <si>
+    <t>The participant is added to current participants and is placed in the starting queue</t>
+  </si>
+  <si>
+    <t>Reset event with 3 participants in event</t>
+  </si>
+  <si>
+    <t>The participants are still in the event because reset event is used for cancel</t>
+  </si>
+  <si>
+    <t>Get event type of individual</t>
+  </si>
+  <si>
+    <t>Get event type of group</t>
+  </si>
+  <si>
+    <t>The individual event type is returned</t>
+  </si>
+  <si>
+    <t>The group event type is returned</t>
+  </si>
+  <si>
+    <t>Get event name with name of "Some name"</t>
+  </si>
+  <si>
+    <t>"Some name" is returned</t>
+  </si>
+  <si>
+    <t>Exit event</t>
+  </si>
+  <si>
+    <t>Event has all participant data structures to null</t>
+  </si>
+  <si>
+    <t>The command is not executed</t>
+  </si>
+  <si>
+    <t>The command is not executed but exception is thrown (need to fix)</t>
+  </si>
+  <si>
+    <t>The command is not exicuted</t>
+  </si>
+  <si>
+    <t>Start participants right after starting up GUI</t>
+  </si>
+  <si>
+    <t>The command is not executed but console says "Starting participants"</t>
+  </si>
+  <si>
+    <t>Finish participants without starting or turning on system</t>
+  </si>
+  <si>
+    <t>The command is not executed and considered invaid</t>
+  </si>
+  <si>
+    <t>The command is not executed but the console says "Finishing participants"</t>
   </si>
 </sst>
 </file>
@@ -463,8 +574,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="29">
+  <cellStyleXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -498,7 +613,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="29">
+  <cellStyles count="33">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -513,6 +628,8 @@
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -527,6 +644,8 @@
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -856,10 +975,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="BS1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -928,7 +1047,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>123</v>
+      </c>
+      <c r="C5" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -936,7 +1058,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>124</v>
+      </c>
+      <c r="C6" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -944,7 +1069,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -952,7 +1077,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -960,7 +1085,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -968,7 +1093,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -976,7 +1101,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -984,7 +1109,84 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>139</v>
+      </c>
+      <c r="C16" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C17" t="s">
+        <v>157</v>
+      </c>
+      <c r="D17" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>160</v>
+      </c>
+      <c r="C18" t="s">
+        <v>157</v>
+      </c>
+      <c r="D18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>162</v>
+      </c>
+      <c r="C19" t="s">
+        <v>163</v>
+      </c>
+      <c r="D19" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -1000,18 +1202,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="68" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1032,40 +1234,154 @@
       <c r="A2">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
         <v>2</v>
       </c>
+      <c r="B3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D3" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
         <v>3</v>
       </c>
+      <c r="B4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D4" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
         <v>4</v>
       </c>
+      <c r="B5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D5" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
         <v>5</v>
       </c>
+      <c r="B6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D6" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
         <v>6</v>
       </c>
+      <c r="B7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C7" t="s">
+        <v>146</v>
+      </c>
+      <c r="D7" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
         <v>7</v>
       </c>
+      <c r="B8" t="s">
+        <v>147</v>
+      </c>
+      <c r="C8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D8" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
         <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>149</v>
+      </c>
+      <c r="C9" t="s">
+        <v>151</v>
+      </c>
+      <c r="D9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C10" t="s">
+        <v>152</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>153</v>
+      </c>
+      <c r="C11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>155</v>
+      </c>
+      <c r="C12" t="s">
+        <v>156</v>
+      </c>
+      <c r="D12" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1113,13 +1429,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1127,13 +1443,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1141,13 +1457,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1155,13 +1471,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1169,13 +1485,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1183,13 +1499,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1197,13 +1513,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1211,13 +1527,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1225,13 +1541,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1239,13 +1555,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1293,10 +1609,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D2" s="1"/>
     </row>
@@ -1305,10 +1621,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -1317,10 +1633,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D4" s="1"/>
     </row>
@@ -1329,10 +1645,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -1341,10 +1657,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D6" s="1"/>
     </row>
@@ -1353,10 +1669,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D7" s="1"/>
     </row>
@@ -1365,10 +1681,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D8" s="1"/>
     </row>
@@ -1377,10 +1693,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D9" s="1"/>
     </row>
@@ -1389,10 +1705,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1440,10 +1756,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1451,10 +1767,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1462,10 +1778,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1473,10 +1789,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1484,10 +1800,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C6" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1495,10 +1811,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C7" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1506,10 +1822,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C8" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1517,10 +1833,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C9" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1528,10 +1844,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C10" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1539,10 +1855,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C11" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1550,10 +1866,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C12" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1561,10 +1877,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C13" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1572,10 +1888,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C14" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1583,10 +1899,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C15" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1594,10 +1910,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C16" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1614,7 +1930,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="B2" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -1644,13 +1960,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1658,13 +1974,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1672,13 +1988,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1686,13 +2002,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C5" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D5" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1700,13 +2016,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C6" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D6" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1714,13 +2030,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D7" t="s">
         <v>106</v>
-      </c>
-      <c r="D7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1728,13 +2044,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C8" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D8" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1742,13 +2058,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C9" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D9" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1756,13 +2072,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C10" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D10" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1770,13 +2086,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C11" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D11" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1784,13 +2100,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C12" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D12" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1798,13 +2114,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C13" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D13" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1812,13 +2128,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C14" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D14" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1826,13 +2142,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D15" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1840,13 +2156,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C16" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D16" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1854,13 +2170,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C17" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D17" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:4">

--- a/required_project_files/Test Cases.xlsx
+++ b/required_project_files/Test Cases.xlsx
@@ -1,20 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\novaradix\git\ZeroCoolRepo\required_project_files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="13920" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="13920" tabRatio="775" firstSheet="12" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Black Box Test" sheetId="2" r:id="rId1"/>
     <sheet name="Event Tests (White Box)" sheetId="1" r:id="rId2"/>
     <sheet name="Participant Tests (White Box)" sheetId="3" r:id="rId3"/>
-    <sheet name="Sensor Tests" sheetId="4" r:id="rId4"/>
-    <sheet name="Record Tests" sheetId="6" r:id="rId5"/>
-    <sheet name="Channel Tests" sheetId="5" r:id="rId6"/>
+    <sheet name="AbstractEventTests" sheetId="7" r:id="rId4"/>
+    <sheet name="Channel Tests" sheetId="5" r:id="rId5"/>
+    <sheet name="ChronoTimerSystem Tests" sheetId="8" r:id="rId6"/>
+    <sheet name="Group Tests" sheetId="10" r:id="rId7"/>
+    <sheet name="Individual Tests" sheetId="11" r:id="rId8"/>
+    <sheet name="ParGroup Tests" sheetId="12" r:id="rId9"/>
+    <sheet name="ParIndividual Tests" sheetId="13" r:id="rId10"/>
+    <sheet name="Participant Tests" sheetId="14" r:id="rId11"/>
+    <sheet name="Record Tests" sheetId="6" r:id="rId12"/>
+    <sheet name="Sensor Tests" sheetId="4" r:id="rId13"/>
+    <sheet name="SystemController Tests" sheetId="15" r:id="rId14"/>
+    <sheet name="TaskList Tests" sheetId="16" r:id="rId15"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="323">
   <si>
     <t>Test Id</t>
   </si>
@@ -503,9 +517,6 @@
     <t>The command is not executed but exception is thrown (need to fix)</t>
   </si>
   <si>
-    <t>The command is not exicuted</t>
-  </si>
-  <si>
     <t>Start participants right after starting up GUI</t>
   </si>
   <si>
@@ -519,15 +530,506 @@
   </si>
   <si>
     <t>The command is not executed but the console says "Finishing participants"</t>
+  </si>
+  <si>
+    <t>The chrono timer turns off without throwing any exceptions</t>
+  </si>
+  <si>
+    <t>The chrono timer turns off without incident</t>
+  </si>
+  <si>
+    <t>The created participant has an ID of 0 and is the first participant on the stack.</t>
+  </si>
+  <si>
+    <t>The name of the event is set.</t>
+  </si>
+  <si>
+    <t>The event's name is the name it was set to.</t>
+  </si>
+  <si>
+    <t>The name of the event is set to an empty string.</t>
+  </si>
+  <si>
+    <t>The time of the event is set.</t>
+  </si>
+  <si>
+    <t>The event's time is the time it was set to.</t>
+  </si>
+  <si>
+    <t>A null participant is added.</t>
+  </si>
+  <si>
+    <t>An exception is thrown.</t>
+  </si>
+  <si>
+    <t>The same participant is added twice.</t>
+  </si>
+  <si>
+    <t>A participant is added.</t>
+  </si>
+  <si>
+    <t>Three participants are added to the event and it is reset.</t>
+  </si>
+  <si>
+    <t>There are three participants in the starting queue.</t>
+  </si>
+  <si>
+    <t>The event name is set.</t>
+  </si>
+  <si>
+    <t>The accessor for event name returns the value the event's name was set to.</t>
+  </si>
+  <si>
+    <t>The event is constructed without specifying the event type.</t>
+  </si>
+  <si>
+    <t>The event's type is IND (individual)</t>
+  </si>
+  <si>
+    <t>The event's time is set to the system's current time.</t>
+  </si>
+  <si>
+    <t>The event's time is the system's current time.</t>
+  </si>
+  <si>
+    <t>The event's formatted time is equal to the formatted version of the time it was set to.</t>
+  </si>
+  <si>
+    <t>The event is set to a certain time. Its formatted time is checked.</t>
+  </si>
+  <si>
+    <t>The event's ID is checked.</t>
+  </si>
+  <si>
+    <t>It has an ID of 1.</t>
+  </si>
+  <si>
+    <t>A new run is created.</t>
+  </si>
+  <si>
+    <t>The event has no participants in its queues.</t>
+  </si>
+  <si>
+    <t>Four participants are added.</t>
+  </si>
+  <si>
+    <t>getCurrentParticipants() returns 4</t>
+  </si>
+  <si>
+    <t>The size of the starting queue is 4</t>
+  </si>
+  <si>
+    <t>The event's getFormattedData() is compared against a predefined string with the correct output</t>
+  </si>
+  <si>
+    <t>The two strings are equal</t>
+  </si>
+  <si>
+    <t>The event is exited using the exit method</t>
+  </si>
+  <si>
+    <t>The queues, type and name are all null</t>
+  </si>
+  <si>
+    <t>The commands of the system controller are used to set the time, connect and toggle the first and second gates, and run participant 555.</t>
+  </si>
+  <si>
+    <t>The participant is the most recent record, with the defined values.</t>
+  </si>
+  <si>
+    <t>Not implemented</t>
+  </si>
+  <si>
+    <t>A file is used to read data.</t>
+  </si>
+  <si>
+    <t>The parsed data is compared against an expected result.</t>
+  </si>
+  <si>
+    <t>A participant is added, with timers triggered. This participant has ten records.</t>
+  </si>
+  <si>
+    <t>The number of records match.</t>
+  </si>
+  <si>
+    <t>A participant is added and started using commands. They are flagged as DNF.</t>
+  </si>
+  <si>
+    <t>The most recent record is compared against the participant and they are checked if they DNF.</t>
+  </si>
+  <si>
+    <t>An event is read from a file.</t>
+  </si>
+  <si>
+    <t>The event's formatted string is compared against the expected value.</t>
+  </si>
+  <si>
+    <t>Participants are generated and added to an event.</t>
+  </si>
+  <si>
+    <t>The participants are compared against expected values, and they are stated as not competing.</t>
+  </si>
+  <si>
+    <t>Conflict -- expected Some Group Event[] but received Some Group Event[ 5]</t>
+  </si>
+  <si>
+    <t>An event is created with a specified time and name.</t>
+  </si>
+  <si>
+    <t>The event has the specified time, the specified name, and the correct event type.</t>
+  </si>
+  <si>
+    <t>An event with no participants is created and triggered.</t>
+  </si>
+  <si>
+    <t>There are no participants in the event or its starting and running queues.</t>
+  </si>
+  <si>
+    <t>There are no participants in the finished queue.</t>
+  </si>
+  <si>
+    <t>Participants are created and added to an event.</t>
+  </si>
+  <si>
+    <t>The correct number of participants are in the running queue, the event has the right number of participants, and they have the right start time.</t>
+  </si>
+  <si>
+    <t>Participants are added and set as DNF.</t>
+  </si>
+  <si>
+    <t>All participants are listed as DNF.</t>
+  </si>
+  <si>
+    <t>A group event is created.</t>
+  </si>
+  <si>
+    <t>It has the right type and name</t>
+  </si>
+  <si>
+    <t>Five participants are added</t>
+  </si>
+  <si>
+    <t>The right number of participants are in the event</t>
+  </si>
+  <si>
+    <t>Participants are added, and start/stop at defined times.</t>
+  </si>
+  <si>
+    <t>The participants aren't competing, have the right times, and the event has the right size.</t>
+  </si>
+  <si>
+    <t>An event is created.</t>
+  </si>
+  <si>
+    <t>The event has the right size (0).</t>
+  </si>
+  <si>
+    <t>Conflict -- name is incorrect</t>
+  </si>
+  <si>
+    <t>The event has the right name, type, and time.</t>
+  </si>
+  <si>
+    <t>An event is created with a specified name and time.</t>
+  </si>
+  <si>
+    <t>An event is set as DNF with no participants</t>
+  </si>
+  <si>
+    <t>Conflict -- code ran fine</t>
+  </si>
+  <si>
+    <t>Participants are added and started</t>
+  </si>
+  <si>
+    <t>Right number of participants, all participants are competing with right start time</t>
+  </si>
+  <si>
+    <t>An event is set as finished with no participants</t>
+  </si>
+  <si>
+    <t>An event is set as finished with some participants.</t>
+  </si>
+  <si>
+    <t>The finished queue has the right size</t>
+  </si>
+  <si>
+    <t>No exceptions thrown</t>
+  </si>
+  <si>
+    <t>An event is run</t>
+  </si>
+  <si>
+    <t>The preset event is reset.</t>
+  </si>
+  <si>
+    <t>Before resetting, it has the predefined number of current/starting participants; after, both are zero</t>
+  </si>
+  <si>
+    <t>Participants are triggered than set to DNF</t>
+  </si>
+  <si>
+    <t>All participants are DNF</t>
+  </si>
+  <si>
+    <t>java.lang.IllegalArgumentException: Cannot add participant for this event type because the max allowed has been reached.</t>
+  </si>
+  <si>
+    <t>Ten participants are added to an event of a specified time, and the event is started</t>
+  </si>
+  <si>
+    <t>The right # of participants are present and in the running and current lists</t>
+  </si>
+  <si>
+    <t>org.junit.ComparisonFailure: expected:&lt;Some ParGroup Event[]&gt; but was:&lt;Some ParGroup Event[ 15]&gt;</t>
+  </si>
+  <si>
+    <t>An event with no participants is triggered.</t>
+  </si>
+  <si>
+    <t>All participant lists are of size 0</t>
+  </si>
+  <si>
+    <t>Finished participant queue is empty</t>
+  </si>
+  <si>
+    <t>Finished and elapsed times are -1</t>
+  </si>
+  <si>
+    <t>An event with participants is started and not finished</t>
+  </si>
+  <si>
+    <t>An event with participants is started and finished</t>
+  </si>
+  <si>
+    <t>All participants have the correct finished and elapsed times</t>
+  </si>
+  <si>
+    <t>An event with participants is started and set to DNF</t>
+  </si>
+  <si>
+    <t>All participants have DNF for this event</t>
+  </si>
+  <si>
+    <t>A Par Group event with a time and name is created</t>
+  </si>
+  <si>
+    <t>The event has the right name, time, and type</t>
+  </si>
+  <si>
+    <t>java.lang.AssertionError: expected:&lt;0&gt; but was:&lt;-1&gt;</t>
+  </si>
+  <si>
+    <t>java.lang.AssertionError: Expected test to throw</t>
+  </si>
+  <si>
+    <t>java.lang.AssertionError: expected:&lt;700000&gt; but was:&lt;-1&gt;</t>
+  </si>
+  <si>
+    <t>java.lang.AssertionError</t>
+  </si>
+  <si>
+    <t>org.junit.ComparisonFailure: expected:&lt;Some ParIND Event[]&gt; but was:&lt;Some ParIND Event[ 17]&gt;</t>
+  </si>
+  <si>
+    <t>Adds participants, starts event</t>
+  </si>
+  <si>
+    <t>All participants are competing with proper start time, event has right number of participants</t>
+  </si>
+  <si>
+    <t>Event is triggered</t>
+  </si>
+  <si>
+    <t>No participants</t>
+  </si>
+  <si>
+    <t>Event has channel, participants are started and finished on bad channel</t>
+  </si>
+  <si>
+    <t>Participants are added, started and finished</t>
+  </si>
+  <si>
+    <t>Finish and elapsed times are at proper values, participants are not competing</t>
+  </si>
+  <si>
+    <t>Participants are added on bad channel</t>
+  </si>
+  <si>
+    <t>Participants are added to event and set to DNF</t>
+  </si>
+  <si>
+    <t>Participants are all DNF</t>
+  </si>
+  <si>
+    <t>A Par Individual event with a time and name is created</t>
+  </si>
+  <si>
+    <t>Tests whether two participants are competing</t>
+  </si>
+  <si>
+    <t>They are not</t>
+  </si>
+  <si>
+    <t>Looks for out-of-bounds record (-1)</t>
+  </si>
+  <si>
+    <t>Makes event and adds participants to it</t>
+  </si>
+  <si>
+    <t>Participants' last record's event has properties of created event</t>
+  </si>
+  <si>
+    <t>Two participants are created with defined IDs</t>
+  </si>
+  <si>
+    <t>The participants indeed have these IDs</t>
+  </si>
+  <si>
+    <t>Two participants are exited</t>
+  </si>
+  <si>
+    <t>They have IDs of -1, 0 records, no name, they aren't competing</t>
+  </si>
+  <si>
+    <t>Two participants are asked about an out-of-bounds event ID (-1000) and a nonexistent one (10)</t>
+  </si>
+  <si>
+    <t>Both return null</t>
+  </si>
+  <si>
+    <t>Two participants have a new record added</t>
+  </si>
+  <si>
+    <t>Their most recent records are not null</t>
+  </si>
+  <si>
+    <t>Two participants have a set number of new records added</t>
+  </si>
+  <si>
+    <t>Their numbers of records match the number of records they had added</t>
+  </si>
+  <si>
+    <t>Two participants are named</t>
+  </si>
+  <si>
+    <t>They have the names they were given</t>
+  </si>
+  <si>
+    <t>One participant is set to have the name of the other, given all other properties are equal</t>
+  </si>
+  <si>
+    <t>The two participants are the same, as per Participant.equals()</t>
+  </si>
+  <si>
+    <t>Two pre-defined participants are not null</t>
+  </si>
+  <si>
+    <t>Two participants are set as competing</t>
+  </si>
+  <si>
+    <t>The participants return true for getIsCompeting()</t>
+  </si>
+  <si>
+    <t>A new participant is created, with a predefined record added</t>
+  </si>
+  <si>
+    <t>The formatted data string it returns is not null</t>
+  </si>
+  <si>
+    <t>Blank</t>
+  </si>
+  <si>
+    <t>Two participants have their competing values set to false via mutator</t>
+  </si>
+  <si>
+    <t>Their competing values are false via accessor</t>
+  </si>
+  <si>
+    <t>Two participants have a new record added via createNewRecord()</t>
+  </si>
+  <si>
+    <t>getRecord(0) returns non-null for both participants</t>
+  </si>
+  <si>
+    <t>Participant with no records returns getFormattedData()</t>
+  </si>
+  <si>
+    <t>IllegalArgumentException</t>
+  </si>
+  <si>
+    <t>Participants with no records are asked for last record via getLastRecord()</t>
+  </si>
+  <si>
+    <t>org.junit.ComparisonFailure: expected:&lt;IND[]&gt; but was:&lt;IND[ 2]&gt;</t>
+  </si>
+  <si>
+    <t>A number of tasks are run: The system is turned on then off then on, a gate is connected and toggled, participants 234 and 315 are added, the race is started, 435 is added, 234 is finished, 435 is started, 315 is DNF, 435 is finished, all is printed, system is turned off</t>
+  </si>
+  <si>
+    <t>After each command, the changes are reflected in the results</t>
+  </si>
+  <si>
+    <t>Did not complete</t>
+  </si>
+  <si>
+    <t>No exceptions</t>
+  </si>
+  <si>
+    <t>Test input is read through readInput()</t>
+  </si>
+  <si>
+    <t>A queue of tasks is made from a TaskList reading from a file</t>
+  </si>
+  <si>
+    <t>The tasks match the ones that are read</t>
+  </si>
+  <si>
+    <t>getChannels, getEventLog, getTimer and getSystemTime return non-null values</t>
+  </si>
+  <si>
+    <t>Tests creation of various types of task adding</t>
+  </si>
+  <si>
+    <t>All invalid task creation arguments (ie other than … + "IND") return IllegalArgumentException</t>
+  </si>
+  <si>
+    <t>Tests creation of various types of connection adding</t>
+  </si>
+  <si>
+    <t>All invalid task creation arguments (ie other than … + "GATE 1", "EYE 1" or "PAD 1") return exceptions</t>
+  </si>
+  <si>
+    <t>Not yet implemented</t>
+  </si>
+  <si>
+    <t>Tests creation of various types of time setting</t>
+  </si>
+  <si>
+    <t>All invalid task creation arguments (ie other than … + "10:00:00.0") return exceptions</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -550,7 +1052,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -576,42 +1094,56 @@
   </borders>
   <cellStyleXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="33">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -650,6 +1182,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -977,33 +1517,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="121" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="69.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.75" style="2" customWidth="1"/>
+    <col min="3" max="3" width="49.75" style="2" customWidth="1"/>
+    <col min="4" max="4" width="45.5" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1017,181 +1558,187 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
+      <c r="C7" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10">
+    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16">
+    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>140</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="C18" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="D17" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="D18" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C18" t="s">
-        <v>157</v>
-      </c>
-      <c r="D18" t="s">
+    </row>
+    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="C19" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="D19" t="s">
-        <v>164</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1200,187 +1747,1242 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" style="2"/>
+    <col min="2" max="4" width="28.75" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="11" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A7" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" style="2"/>
+    <col min="2" max="4" width="28.75" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="11" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="37" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="11" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" style="2"/>
+    <col min="2" max="2" width="34.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.75" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="11" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" style="2"/>
+    <col min="2" max="4" width="28.75" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="11" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" style="2"/>
+    <col min="2" max="4" width="28.75" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="11" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>320</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="68" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="40.125" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
+    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="2" t="s">
         <v>152</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="2" t="s">
         <v>106</v>
       </c>
     </row>
@@ -1400,31 +3002,31 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="52.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="35.625" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1438,129 +3040,129 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9">
+    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10">
+    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11">
+    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="2" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1577,343 +3179,539 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="34.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" style="2"/>
+    <col min="2" max="4" width="40.25" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
+      <c r="B2" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
+      <c r="B3" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1">
+      <c r="B4" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1">
+      <c r="B5" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1">
+      <c r="B6" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1">
+      <c r="B7" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1">
+      <c r="B8" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1">
+      <c r="B9" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>59</v>
-      </c>
+      <c r="B10" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView showRuler="0" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="63" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" style="2"/>
+    <col min="2" max="4" width="40.25" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
+      <c r="B2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
+      <c r="B3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
+      <c r="B4" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
+      <c r="B5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
+      <c r="B6" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
+      <c r="B7" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9">
+      <c r="B8" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10">
+      <c r="B9" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11">
+      <c r="B10" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C11" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12">
+      <c r="B11" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>73</v>
-      </c>
-      <c r="C12" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13">
+      <c r="B12" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
-        <v>74</v>
-      </c>
-      <c r="C13" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14">
+      <c r="B13" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
-        <v>75</v>
-      </c>
-      <c r="C14" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15">
+      <c r="B14" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
-        <v>76</v>
-      </c>
-      <c r="C15" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16">
+      <c r="B15" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
-        <v>85</v>
-      </c>
-      <c r="C16" t="s">
-        <v>82</v>
+      <c r="B16" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1928,273 +3726,578 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="76.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="56.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" style="2"/>
+    <col min="2" max="4" width="28.75" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
+    <row r="2" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
+      <c r="B2" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
+      <c r="B3" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
+      <c r="B4" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C5" t="s">
-        <v>104</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="B5" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
+    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="B6" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C7" t="s">
-        <v>101</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="B7" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
+    <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C8" t="s">
-        <v>99</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="B8" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9">
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" style="2"/>
+    <col min="2" max="4" width="28.75" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="11" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" style="2"/>
+    <col min="2" max="4" width="28.75" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="11" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>97</v>
-      </c>
-      <c r="C9" t="s">
-        <v>98</v>
-      </c>
-      <c r="D9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10">
+      <c r="B9" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>107</v>
-      </c>
-      <c r="C10" t="s">
-        <v>108</v>
-      </c>
-      <c r="D10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11">
+      <c r="B10" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>109</v>
-      </c>
-      <c r="C11" t="s">
-        <v>110</v>
-      </c>
-      <c r="D11" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12">
+      <c r="B11" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>111</v>
-      </c>
-      <c r="C12" t="s">
-        <v>112</v>
-      </c>
-      <c r="D12" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>113</v>
-      </c>
-      <c r="C13" t="s">
-        <v>114</v>
-      </c>
-      <c r="D13" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>115</v>
-      </c>
-      <c r="C14" t="s">
-        <v>116</v>
-      </c>
-      <c r="D14" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>117</v>
-      </c>
-      <c r="C15" t="s">
-        <v>118</v>
-      </c>
-      <c r="D15" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>119</v>
-      </c>
-      <c r="C16" t="s">
-        <v>120</v>
-      </c>
-      <c r="D16" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>121</v>
-      </c>
-      <c r="C17" t="s">
-        <v>122</v>
-      </c>
-      <c r="D17" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19">
-        <v>18</v>
+      <c r="B12" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" style="2"/>
+    <col min="2" max="4" width="28.75" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="11" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>